--- a/summary/Deep Causal Model.xlsx
+++ b/summary/Deep Causal Model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="190">
   <si>
     <t>序号</t>
   </si>
@@ -433,7 +433,7 @@
     <t>Learning Counterfactual Representations for Estimating Individual Dose-Response Curves</t>
   </si>
   <si>
-    <t>SCI</t>
+    <t>DRNet</t>
   </si>
   <si>
     <t>连续剂量参数的任意数量治疗的个体剂量-反应曲线，开发了性能指标、模型选择标准、模型架构和用于估计单个剂量-反应曲线的开放基准</t>
@@ -541,6 +541,9 @@
   </si>
   <si>
     <t>SCI: Subspace Learning Based Counterfactual Inference for Individual Treatment Effect Estimation</t>
+  </si>
+  <si>
+    <t>SCI</t>
   </si>
   <si>
     <t>公共子空间+两个特定子空间信息相互补充，公共子空间进行不同治疗组之间平衡表示，保留整个治疗组之间的信息，减少选择偏差，治疗特异性的子空间保留每种治疗的信息</t>
@@ -1951,8 +1954,8 @@
   <sheetPr/>
   <dimension ref="A7:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="D10" workbookViewId="0">
-      <selection activeCell="D36" sqref="$A36:$XFD36"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2969,13 +2972,13 @@
         <v>44501</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>133</v>
+        <v>164</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="33" t="s">
@@ -2990,22 +2993,22 @@
         <v>36</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D46" s="15">
         <v>44531</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="I46" s="33" t="s">
         <v>162</v>
@@ -3019,25 +3022,25 @@
         <v>37</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D47" s="15">
         <v>44532</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>14</v>
@@ -3051,25 +3054,25 @@
         <v>38</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D48" s="15">
         <v>44533</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>14</v>
@@ -3080,25 +3083,25 @@
         <v>39</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D49" s="24">
         <v>44593</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="J49" s="36" t="s">
         <v>14</v>

--- a/summary/Deep Causal Model.xlsx
+++ b/summary/Deep Causal Model.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="191">
   <si>
     <t>序号</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>基于VAE通过任务嵌入来建模治疗之间的相互依赖性，结合多种治疗的效果，估计处理任何子集的因果效应</t>
+  </si>
+  <si>
+    <t>User-Conversion</t>
   </si>
   <si>
     <t>On the Estimation of Treatment Effect with Text Covariates</t>
@@ -1954,8 +1957,8 @@
   <sheetPr/>
   <dimension ref="A7:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" topLeftCell="F10" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -2360,7 +2363,7 @@
         <v>68</v>
       </c>
       <c r="G23" s="18" t="s">
-        <v>12</v>
+        <v>69</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="33" t="s">
@@ -2375,23 +2378,23 @@
         <v>14</v>
       </c>
       <c r="C24" s="14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D24" s="15">
         <v>43678</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="F24" s="17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="G24" s="18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="J24" s="34" t="s">
         <v>14</v>
@@ -2402,25 +2405,25 @@
         <v>15</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25" s="15">
         <v>43739</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F25" s="17" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G25" s="18" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H25" s="19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I25" s="33" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J25" s="34" t="s">
         <v>14</v>
@@ -2431,16 +2434,16 @@
         <v>16</v>
       </c>
       <c r="C26" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D26" s="15">
         <v>43770</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F26" s="17" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G26" s="18" t="s">
         <v>28</v>
@@ -2458,23 +2461,23 @@
         <v>17</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D27" s="15">
         <v>43800</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F27" s="17" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G27" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H27" s="19"/>
       <c r="I27" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J27" s="34" t="s">
         <v>14</v>
@@ -2485,22 +2488,22 @@
         <v>18</v>
       </c>
       <c r="C28" s="14" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28" s="15">
         <v>43862</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F28" s="17" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="G28" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H28" s="19" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I28" s="33" t="s">
         <v>13</v>
@@ -2514,23 +2517,23 @@
         <v>19</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D29" s="15">
         <v>43922</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F29" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G29" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H29" s="19"/>
       <c r="I29" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J29" s="34" t="s">
         <v>14</v>
@@ -2541,23 +2544,23 @@
         <v>20</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D30" s="15">
         <v>43922</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F30" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="G30" s="18" t="s">
         <v>49</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J30" s="34" t="s">
         <v>14</v>
@@ -2568,23 +2571,23 @@
         <v>21</v>
       </c>
       <c r="C31" s="14" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D31" s="15">
         <v>43922</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F31" s="17" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G31" s="18" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H31" s="19"/>
       <c r="I31" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J31" s="34" t="s">
         <v>14</v>
@@ -2595,22 +2598,22 @@
         <v>22</v>
       </c>
       <c r="C32" s="14" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="D32" s="15">
         <v>43923</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F32" s="17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G32" s="18" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="H32" s="19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="I32" s="33" t="s">
         <v>60</v>
@@ -2624,22 +2627,22 @@
         <v>23</v>
       </c>
       <c r="C33" s="14" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D33" s="15">
         <v>43983</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F33" s="17" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="G33" s="18" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H33" s="19" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I33" s="33" t="s">
         <v>60</v>
@@ -2653,25 +2656,25 @@
         <v>24</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="D34" s="15">
         <v>44105</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F34" s="17" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="G34" s="18" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="H34" s="19" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="I34" s="33" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="J34" s="34" t="s">
         <v>14</v>
@@ -2682,16 +2685,16 @@
         <v>25</v>
       </c>
       <c r="C35" s="14" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D35" s="15">
         <v>44105</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F35" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="G35" s="18" t="s">
         <v>18</v>
@@ -2709,22 +2712,22 @@
         <v>26</v>
       </c>
       <c r="C36" s="14" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D36" s="15">
         <v>44136</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F36" s="17" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="G36" s="18" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H36" s="19" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I36" s="33" t="s">
         <v>30</v>
@@ -2738,25 +2741,25 @@
         <v>27</v>
       </c>
       <c r="C37" s="20" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D37" s="15">
         <v>44166</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F37" s="17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G37" s="18" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H37" s="19" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="I37" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J37" s="34" t="s">
         <v>14</v>
@@ -2767,25 +2770,25 @@
         <v>28</v>
       </c>
       <c r="C38" s="20" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D38" s="15">
         <v>44166</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F38" s="17" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G38" s="18" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H38" s="19" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="I38" s="33" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="J38" s="34" t="s">
         <v>14</v>
@@ -2796,19 +2799,19 @@
         <v>29</v>
       </c>
       <c r="C39" s="20" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D39" s="15">
         <v>44167</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F39" s="17" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G39" s="18" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="33" t="s">
@@ -2823,25 +2826,25 @@
         <v>30</v>
       </c>
       <c r="C40" s="14" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D40" s="15">
         <v>44287</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F40" s="17" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G40" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H40" s="19" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="I40" s="33" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="J40" s="34" t="s">
         <v>14</v>
@@ -2852,23 +2855,23 @@
         <v>31</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D41" s="15">
         <v>44317</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F41" s="17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G41" s="18" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="33" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="J41" s="34" t="s">
         <v>14</v>
@@ -2879,22 +2882,22 @@
         <v>32</v>
       </c>
       <c r="C42" s="14" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D42" s="15">
         <v>44378</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F42" s="17" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G42" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H42" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I42" s="33" t="s">
         <v>13</v>
@@ -2908,25 +2911,25 @@
         <v>33</v>
       </c>
       <c r="C43" s="14" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D43" s="15">
         <v>44470</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F43" s="17" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G43" s="18" t="s">
         <v>18</v>
       </c>
       <c r="H43" s="19" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I43" s="33" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J43" s="34" t="s">
         <v>14</v>
@@ -2937,25 +2940,25 @@
         <v>34</v>
       </c>
       <c r="C44" s="14" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D44" s="15">
         <v>44470</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F44" s="17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G44" s="18" t="s">
         <v>28</v>
       </c>
       <c r="H44" s="19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="I44" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J44" s="34" t="s">
         <v>14</v>
@@ -2966,19 +2969,19 @@
         <v>35</v>
       </c>
       <c r="C45" s="14" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D45" s="15">
         <v>44501</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F45" s="17" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G45" s="18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="33" t="s">
@@ -2993,25 +2996,25 @@
         <v>36</v>
       </c>
       <c r="C46" s="14" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D46" s="15">
         <v>44531</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="F46" s="17" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G46" s="18" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="H46" s="19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="I46" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J46" s="34" t="s">
         <v>14</v>
@@ -3022,25 +3025,25 @@
         <v>37</v>
       </c>
       <c r="C47" s="14" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47" s="15">
         <v>44532</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F47" s="17" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="G47" s="18" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="H47" s="19" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="I47" s="33" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="J47" s="34" t="s">
         <v>14</v>
@@ -3048,31 +3051,31 @@
     </row>
     <row r="48" ht="21" spans="1:10">
       <c r="A48" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B48" s="13">
         <v>38</v>
       </c>
       <c r="C48" s="20" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D48" s="15">
         <v>44533</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F48" s="17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G48" s="18" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H48" s="19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I48" s="33" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="J48" s="34" t="s">
         <v>14</v>
@@ -3083,25 +3086,25 @@
         <v>39</v>
       </c>
       <c r="C49" s="23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D49" s="24">
         <v>44593</v>
       </c>
       <c r="E49" s="25" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F49" s="26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G49" s="27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H49" s="28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="I49" s="35" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="J49" s="36" t="s">
         <v>14</v>
